--- a/data/裂缝宽度监测结果.xlsx
+++ b/data/裂缝宽度监测结果.xlsx
@@ -29,13 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="68">
   <si>
     <t>测点位置</t>
   </si>
   <si>
-    <t>测点
-编号</t>
+    <t>测点编号</t>
   </si>
   <si>
     <t>本次监测期内峰值</t>
@@ -54,6 +53,18 @@
   </si>
   <si>
     <t>均值差值</t>
+  </si>
+  <si>
+    <t>历史峰值是否更新</t>
+  </si>
+  <si>
+    <t>本次历史峰值</t>
+  </si>
+  <si>
+    <t>峰值差值验算（应为0）</t>
+  </si>
+  <si>
+    <t>均值差值验算（应为0）</t>
   </si>
   <si>
     <r>
@@ -79,16 +90,28 @@
     <t>3R-1</t>
   </si>
   <si>
+    <t>峰值最小值</t>
+  </si>
+  <si>
     <t>3R-2</t>
   </si>
   <si>
+    <t>峰值最大值</t>
+  </si>
+  <si>
     <t>3R-3</t>
   </si>
   <si>
+    <t>均值最小值</t>
+  </si>
+  <si>
     <t>3R-4</t>
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>均值最大值</t>
   </si>
   <si>
     <t>3R-5</t>
@@ -233,13 +256,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +273,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="楷体_GB2312"/>
@@ -255,6 +281,18 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷体_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -403,6 +441,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="楷体_GB2312"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -598,7 +642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -607,16 +651,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -625,13 +684,28 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -640,25 +714,25 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -667,43 +741,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -829,169 +903,220 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1304,15 +1429,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:8">
+    <row r="1" ht="25.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,561 +1456,1494 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="27.75" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="7">
         <v>0.019</v>
       </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="7">
         <v>-0.011</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="H2" s="6"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17">
+        <f>(C2-D2)-E2</f>
+        <v>-0.019</v>
+      </c>
+      <c r="L2" s="18">
+        <f>(F2-G2)-H2</f>
+        <v>0.011</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="20">
+        <f>MIN(C2:C4,C6:C7,C9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
         <v>0.046</v>
       </c>
-      <c r="G3" s="8">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7">
         <v>-0.017</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="H3" s="6"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17">
+        <f t="shared" ref="K3:K49" si="0">(C3-D3)-E3</f>
+        <v>-0.046</v>
+      </c>
+      <c r="L3" s="18">
+        <f t="shared" ref="L3:L49" si="1">(F3-G3)-H3</f>
+        <v>0.017</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="20">
+        <f>MAX(C2:C4,C6:C7,C9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7">
         <v>0.052</v>
       </c>
-      <c r="G4" s="8">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7">
         <v>-0.007</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="H4" s="6"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.052</v>
+      </c>
+      <c r="L4" s="18">
+        <f t="shared" si="1"/>
+        <v>0.007</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="20">
+        <f>MIN(F2:F4,F6:F7,F9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="20">
+        <f>MAX(F2:F4,F6:F7,F9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7">
         <v>0.083</v>
       </c>
-      <c r="G6" s="8">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7">
         <v>0.008</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:7">
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="H6" s="6"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.083</v>
+      </c>
+      <c r="L6" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.008</v>
+      </c>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" ht="15" spans="1:15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
         <v>0.055</v>
       </c>
-      <c r="G7" s="8">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
         <v>0.014</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="2:7">
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="H7" s="6"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.055</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.014</v>
+      </c>
+      <c r="O7" s="23"/>
+    </row>
+    <row r="8" ht="15" spans="1:15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" ht="15" spans="1:15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7">
         <v>0.046</v>
       </c>
-      <c r="G9" s="9">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="1:7">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.046</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.001</v>
+      </c>
+      <c r="O9" s="23"/>
+    </row>
+    <row r="10" ht="15" spans="1:15">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="7">
         <v>0.037</v>
       </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="7">
         <v>-0.013</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" spans="2:7">
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="H10" s="6"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.037</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="1"/>
+        <v>0.013</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="20">
+        <f>MIN(C10:C13,C15,C17,C19,C21:C22,C24:C25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7">
         <v>0.033</v>
       </c>
-      <c r="G11" s="8">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7">
         <v>0.007</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" spans="2:7">
-      <c r="B12" s="8" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.033</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.007</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="20">
+        <f>MAX(C10:C13,C15,C17,C19,C21:C22,C24:C25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7">
+        <v>0.023</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7">
+        <v>-0.036</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.023</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="1"/>
+        <v>0.036</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="20">
+        <f>MIN(F10:F13,F15,F17,F19,F21:F22,F24:F25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7">
+        <v>0.008</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7">
+        <v>-0.026</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.008</v>
+      </c>
+      <c r="L13" s="18">
+        <f t="shared" si="1"/>
+        <v>0.026</v>
+      </c>
+      <c r="N13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8">
+      <c r="O13" s="20">
+        <f>MAX(F10:F13,F15,F17,F19,F21:F22,F24:F25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" ht="15" spans="1:15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7">
+        <v>-0.001</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.03</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="1"/>
+        <v>0.001</v>
+      </c>
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" ht="15" spans="1:15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" ht="15" spans="1:15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7">
+        <v>0.07</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7">
+        <v>0.059</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.07</v>
+      </c>
+      <c r="L17" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.059</v>
+      </c>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" ht="15" spans="1:15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" ht="15" spans="1:15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7">
+        <v>0.031</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7">
+        <v>-0.011</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.031</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="1"/>
+        <v>0.011</v>
+      </c>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" ht="15" spans="1:15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" ht="15" spans="1:15">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7">
+        <v>0.014</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.014</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="O21" s="23"/>
+    </row>
+    <row r="22" ht="15" spans="1:15">
+      <c r="A22" s="9"/>
+      <c r="B22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7">
+        <v>0.012</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7">
+        <v>-0.021</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.012</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="1"/>
+        <v>0.021</v>
+      </c>
+      <c r="O22" s="23"/>
+    </row>
+    <row r="23" ht="15" spans="1:15">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="23"/>
+    </row>
+    <row r="24" ht="15" spans="1:15">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7">
+        <v>0.016</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7">
+        <v>-0.022</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.016</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="1"/>
+        <v>0.022</v>
+      </c>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" ht="15" spans="1:15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7">
+        <v>-0.015</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.02</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" si="1"/>
+        <v>0.015</v>
+      </c>
+      <c r="O25" s="23"/>
+    </row>
+    <row r="26" ht="15" spans="1:15">
+      <c r="A26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7">
+        <v>0.025</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7">
+        <v>-0.001</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.025</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="1"/>
+        <v>0.001</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="20">
+        <f>MIN(C26:C31,C33:C36,C38:C39,C41:C49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
+        <v>0.011</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7">
+        <v>-0.027</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.011</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="1"/>
+        <v>0.027</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="20">
+        <f>MAX(C26:C31,C33:C36,C38:C39,C41:C49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7">
+        <v>0.018</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7">
+        <v>-0.04</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.018</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="20">
+        <f>MIN(F26:F31,F33:F36,F38:F39,F41:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:15">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7">
+        <v>0.016</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7">
+        <v>-0.017</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.016</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="1"/>
+        <v>0.017</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="20">
+        <f>MAX(F26:F31,F33:F36,F38:F39,F41:F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:12">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7">
+        <v>0.017</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7">
+        <v>-0.015</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.017</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="1"/>
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:12">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7">
+        <v>0.042</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7">
+        <v>0.022</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.042</v>
+      </c>
+      <c r="L31" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:12">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7">
+        <v>0.035</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7">
+        <v>0.005</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.035</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:12">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7">
+        <v>0.046</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7">
+        <v>0.013</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.046</v>
+      </c>
+      <c r="L34" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.013</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:12">
+      <c r="A35" s="9"/>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7">
+        <v>0.032</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7">
+        <v>0.016</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.032</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.016</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:12">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7">
+        <v>0.038</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7">
+        <v>-0.001</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.038</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" si="1"/>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:12">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7">
+        <v>0.031</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7">
+        <v>0.001</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.031</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.001</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:12">
+      <c r="A39" s="9"/>
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7">
+        <v>0.007</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7">
+        <v>-0.025</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.007</v>
+      </c>
+      <c r="L39" s="18">
+        <f t="shared" si="1"/>
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="9"/>
+      <c r="B40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:12">
+      <c r="A41" s="9"/>
+      <c r="B41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7">
+        <v>0.016</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7">
+        <v>-0.007</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.016</v>
+      </c>
+      <c r="L41" s="18">
+        <f t="shared" si="1"/>
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:12">
+      <c r="A42" s="9"/>
+      <c r="B42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7">
+        <v>0.028</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7">
+        <v>-0.006</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.028</v>
+      </c>
+      <c r="L42" s="18">
+        <f t="shared" si="1"/>
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:12">
+      <c r="A43" s="9"/>
+      <c r="B43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7">
         <v>0.023</v>
       </c>
-      <c r="G12" s="8">
-        <v>-0.036</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.008</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7">
+        <v>0.006</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.023</v>
+      </c>
+      <c r="L43" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.006</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:12">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.04</v>
+      </c>
+      <c r="L44" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:12">
+      <c r="A45" s="9"/>
+      <c r="B45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7">
+        <v>0.006</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7">
         <v>-0.026</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="2:7">
-      <c r="B14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="2:7">
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="H45" s="6"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.006</v>
+      </c>
+      <c r="L45" s="18">
+        <f t="shared" si="1"/>
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:12">
+      <c r="A46" s="9"/>
+      <c r="B46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7">
+        <v>0.019</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7">
         <v>-0.001</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" spans="2:7">
-      <c r="B16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="2:7">
-      <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.07</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="2:7">
-      <c r="B18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="2:7">
-      <c r="B19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.031</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="H46" s="6"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.019</v>
+      </c>
+      <c r="L46" s="18">
+        <f t="shared" si="1"/>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:12">
+      <c r="A47" s="9"/>
+      <c r="B47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7">
+        <v>0.011</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="17">
+        <f t="shared" si="0"/>
         <v>-0.011</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" spans="2:7">
-      <c r="B20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="2:7">
-      <c r="B21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.014</v>
-      </c>
-      <c r="G21" s="8">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="2:7">
-      <c r="B22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.012</v>
-      </c>
-      <c r="G22" s="8">
-        <v>-0.021</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="2:7">
-      <c r="B23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.016</v>
-      </c>
-      <c r="G24" s="8">
-        <v>-0.022</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="2:7">
-      <c r="B25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="G25" s="8">
-        <v>-0.015</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0.025</v>
-      </c>
-      <c r="G26" s="8">
-        <v>-0.001</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="2:7">
-      <c r="B27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0.011</v>
-      </c>
-      <c r="G27" s="8">
-        <v>-0.027</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="2:7">
-      <c r="B28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0.018</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="L47" s="18">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:12">
+      <c r="A48" s="9"/>
+      <c r="B48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7">
+        <v>0.034</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7">
+        <v>0.005</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="17">
+        <f t="shared" si="0"/>
+        <v>-0.034</v>
+      </c>
+      <c r="L48" s="18">
+        <f t="shared" si="1"/>
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" spans="1:12">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13">
+        <v>-0.002</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="26">
+        <f t="shared" si="0"/>
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="29" ht="14.25" spans="2:7">
-      <c r="B29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.016</v>
-      </c>
-      <c r="G29" s="8">
-        <v>-0.017</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="2:7">
-      <c r="B30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0.017</v>
-      </c>
-      <c r="G30" s="8">
-        <v>-0.015</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="2:7">
-      <c r="B31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.042</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" spans="2:7">
-      <c r="B32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="2:7">
-      <c r="B33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0.035</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="2:7">
-      <c r="B34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0.046</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="2:7">
-      <c r="B35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0.032</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="2:7">
-      <c r="B36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0.038</v>
-      </c>
-      <c r="G36" s="8">
-        <v>-0.001</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" spans="2:7">
-      <c r="B37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" spans="2:7">
-      <c r="B38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0.031</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="2:7">
-      <c r="B39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0.007</v>
-      </c>
-      <c r="G39" s="8">
-        <v>-0.025</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" spans="2:7">
-      <c r="B40" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="2:7">
-      <c r="B41" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0.016</v>
-      </c>
-      <c r="G41" s="8">
-        <v>-0.007</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="2:7">
-      <c r="B42" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="8">
-        <v>0.028</v>
-      </c>
-      <c r="G42" s="8">
-        <v>-0.006</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" spans="2:7">
-      <c r="B43" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0.023</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" spans="2:7">
-      <c r="B44" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="2:7">
-      <c r="B45" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0.006</v>
-      </c>
-      <c r="G45" s="10">
-        <v>-0.026</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="2:7">
-      <c r="B46" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="8">
-        <v>0.019</v>
-      </c>
-      <c r="G46" s="8">
-        <v>-0.001</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="2:7">
-      <c r="B47" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="8">
-        <v>0.011</v>
-      </c>
-      <c r="G47" s="8">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="2:7">
-      <c r="B48" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0.034</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" spans="2:7">
-      <c r="B49" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="G49" s="9">
-        <v>-0.002</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25"/>
+      <c r="L49" s="27">
+        <f t="shared" si="1"/>
+        <v>0.002</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A25"/>
+    <mergeCell ref="A26:A49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/裂缝宽度监测结果.xlsx
+++ b/data/裂缝宽度监测结果.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
   <si>
     <t>测点位置</t>
   </si>
@@ -1434,7 +1434,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1498,7 +1498,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7">
-        <v>-0.011</v>
+        <v>-0.003</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="15"/>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="L2" s="18">
         <f>(F2-G2)-H2</f>
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>14</v>
@@ -1531,7 +1531,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7">
-        <v>-0.017</v>
+        <v>-0.014</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="15"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="L3" s="18">
         <f t="shared" ref="L3:L49" si="1">(F3-G3)-H3</f>
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>16</v>
@@ -1564,7 +1564,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7">
-        <v>-0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="15"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="L4" s="18">
         <f t="shared" si="1"/>
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>18</v>
@@ -1593,17 +1593,15 @@
       <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
+      <c r="G5" s="7">
+        <v>0.119</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>20</v>
@@ -1640,7 +1638,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="15"/>
@@ -1651,7 +1649,7 @@
       </c>
       <c r="L6" s="18">
         <f t="shared" si="1"/>
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="O6" s="23"/>
     </row>
@@ -1667,7 +1665,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="15"/>
@@ -1678,7 +1676,7 @@
       </c>
       <c r="L7" s="18">
         <f t="shared" si="1"/>
-        <v>-0.014</v>
+        <v>-0.017</v>
       </c>
       <c r="O7" s="23"/>
     </row>
@@ -1690,18 +1688,14 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1725,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7">
-        <v>0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="15"/>
@@ -1742,7 +1736,7 @@
       </c>
       <c r="L9" s="18">
         <f t="shared" si="1"/>
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="O9" s="23"/>
     </row>
@@ -1760,7 +1754,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7">
-        <v>-0.013</v>
+        <v>-0.002</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="15"/>
@@ -1771,7 +1765,7 @@
       </c>
       <c r="L10" s="18">
         <f t="shared" si="1"/>
-        <v>0.013</v>
+        <v>0.002</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>14</v>
@@ -1793,7 +1787,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="15"/>
@@ -1804,7 +1798,7 @@
       </c>
       <c r="L11" s="18">
         <f t="shared" si="1"/>
-        <v>-0.007</v>
+        <v>-0.014</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>16</v>
@@ -1826,7 +1820,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7">
-        <v>-0.036</v>
+        <v>-0.029</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="15"/>
@@ -1837,7 +1831,7 @@
       </c>
       <c r="L12" s="18">
         <f t="shared" si="1"/>
-        <v>0.036</v>
+        <v>0.029</v>
       </c>
       <c r="N12" s="19" t="s">
         <v>18</v>
@@ -1859,7 +1853,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7">
-        <v>-0.026</v>
+        <v>-0.021</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="15"/>
@@ -1870,7 +1864,7 @@
       </c>
       <c r="L13" s="18">
         <f t="shared" si="1"/>
-        <v>0.026</v>
+        <v>0.021</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>21</v>
@@ -1888,17 +1882,15 @@
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>20</v>
+      <c r="G14" s="7">
+        <v>0.646</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>20</v>
@@ -1929,7 +1921,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7">
-        <v>-0.001</v>
+        <v>0.008</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="15"/>
@@ -1940,7 +1932,7 @@
       </c>
       <c r="L15" s="18">
         <f t="shared" si="1"/>
-        <v>0.001</v>
+        <v>-0.008</v>
       </c>
       <c r="O15" s="23"/>
     </row>
@@ -1952,17 +1944,15 @@
       <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>20</v>
+      <c r="G16" s="7">
+        <v>-0.01</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>20</v>
@@ -1988,23 +1978,23 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7">
-        <v>0.07</v>
+        <v>0.071</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7">
-        <v>0.059</v>
+        <v>0.061</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="17">
         <f t="shared" si="0"/>
-        <v>-0.07</v>
+        <v>-0.071</v>
       </c>
       <c r="L17" s="18">
         <f t="shared" si="1"/>
-        <v>-0.059</v>
+        <v>-0.061</v>
       </c>
       <c r="O17" s="23"/>
     </row>
@@ -2016,17 +2006,15 @@
       <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>20</v>
+      <c r="G18" s="7">
+        <v>-0.061</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>20</v>
@@ -2057,7 +2045,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7">
-        <v>-0.011</v>
+        <v>-0.006</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="15"/>
@@ -2068,7 +2056,7 @@
       </c>
       <c r="L19" s="18">
         <f t="shared" si="1"/>
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="O19" s="23"/>
     </row>
@@ -2080,17 +2068,15 @@
       <c r="C20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
+      <c r="G20" s="7">
+        <v>-0.012</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>20</v>
@@ -2121,7 +2107,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="15"/>
@@ -2132,7 +2118,7 @@
       </c>
       <c r="L21" s="18">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="O21" s="23"/>
     </row>
@@ -2148,7 +2134,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7">
-        <v>-0.021</v>
+        <v>-0.014</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="15"/>
@@ -2159,7 +2145,7 @@
       </c>
       <c r="L22" s="18">
         <f t="shared" si="1"/>
-        <v>0.021</v>
+        <v>0.014</v>
       </c>
       <c r="O22" s="23"/>
     </row>
@@ -2171,17 +2157,15 @@
       <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>20</v>
+      <c r="G23" s="7">
+        <v>0.018</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>20</v>
@@ -2212,7 +2196,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7">
-        <v>-0.022</v>
+        <v>-0.017</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="15"/>
@@ -2223,7 +2207,7 @@
       </c>
       <c r="L24" s="18">
         <f t="shared" si="1"/>
-        <v>0.022</v>
+        <v>0.017</v>
       </c>
       <c r="O24" s="23"/>
     </row>
@@ -2239,7 +2223,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7">
-        <v>-0.015</v>
+        <v>-0.01</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="15"/>
@@ -2250,7 +2234,7 @@
       </c>
       <c r="L25" s="18">
         <f t="shared" si="1"/>
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="O25" s="23"/>
     </row>
@@ -2268,7 +2252,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="15"/>
@@ -2279,7 +2263,7 @@
       </c>
       <c r="L26" s="18">
         <f t="shared" si="1"/>
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="N26" s="19" t="s">
         <v>14</v>
@@ -2301,7 +2285,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7">
-        <v>-0.027</v>
+        <v>-0.02</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="15"/>
@@ -2312,7 +2296,7 @@
       </c>
       <c r="L27" s="18">
         <f t="shared" si="1"/>
-        <v>0.027</v>
+        <v>0.02</v>
       </c>
       <c r="N27" s="19" t="s">
         <v>16</v>
@@ -2367,7 +2351,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7">
-        <v>-0.017</v>
+        <v>-0.023</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="15"/>
@@ -2378,7 +2362,7 @@
       </c>
       <c r="L29" s="18">
         <f t="shared" si="1"/>
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="N29" s="19" t="s">
         <v>21</v>
@@ -2400,7 +2384,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7">
-        <v>-0.015</v>
+        <v>-0.006</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="15"/>
@@ -2411,7 +2395,7 @@
       </c>
       <c r="L30" s="18">
         <f t="shared" si="1"/>
-        <v>0.015</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:12">
@@ -2426,7 +2410,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="15"/>
@@ -2437,7 +2421,7 @@
       </c>
       <c r="L31" s="18">
         <f t="shared" si="1"/>
-        <v>-0.022</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2448,17 +2432,15 @@
       <c r="C32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>20</v>
+      <c r="G32" s="7">
+        <v>-0.008</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>20</v>
@@ -2488,7 +2470,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
-        <v>0.005</v>
+        <v>0.009</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="15"/>
@@ -2499,7 +2481,7 @@
       </c>
       <c r="L33" s="18">
         <f t="shared" si="1"/>
-        <v>-0.005</v>
+        <v>-0.009</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:12">
@@ -2514,7 +2496,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="15"/>
@@ -2525,7 +2507,7 @@
       </c>
       <c r="L34" s="18">
         <f t="shared" si="1"/>
-        <v>-0.013</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:12">
@@ -2540,7 +2522,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="15"/>
@@ -2551,7 +2533,7 @@
       </c>
       <c r="L35" s="18">
         <f t="shared" si="1"/>
-        <v>-0.016</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:12">
@@ -2588,17 +2570,15 @@
       <c r="C37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>20</v>
+      <c r="G37" s="7">
+        <v>0.181</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>20</v>
@@ -2628,7 +2608,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="15"/>
@@ -2639,7 +2619,7 @@
       </c>
       <c r="L38" s="18">
         <f t="shared" si="1"/>
-        <v>-0.001</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:12">
@@ -2654,7 +2634,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7">
-        <v>-0.025</v>
+        <v>-0.022</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="15"/>
@@ -2665,7 +2645,7 @@
       </c>
       <c r="L39" s="18">
         <f t="shared" si="1"/>
-        <v>0.025</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2676,17 +2656,15 @@
       <c r="C40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>20</v>
+      <c r="G40" s="7">
+        <v>-0.343</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>20</v>
@@ -2716,7 +2694,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7">
-        <v>-0.007</v>
+        <v>-0.015</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="15"/>
@@ -2727,7 +2705,7 @@
       </c>
       <c r="L41" s="18">
         <f t="shared" si="1"/>
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:12">
@@ -2742,7 +2720,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7">
-        <v>-0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="15"/>
@@ -2753,7 +2731,7 @@
       </c>
       <c r="L42" s="18">
         <f t="shared" si="1"/>
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:12">
@@ -2763,23 +2741,23 @@
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="7">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="15"/>
       <c r="J43" s="16"/>
       <c r="K43" s="17">
         <f t="shared" si="0"/>
-        <v>-0.023</v>
+        <v>-0.026</v>
       </c>
       <c r="L43" s="18">
         <f t="shared" si="1"/>
-        <v>-0.006</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:12">
@@ -2820,7 +2798,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="7">
-        <v>-0.026</v>
+        <v>-0.032</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="15"/>
@@ -2831,7 +2809,7 @@
       </c>
       <c r="L45" s="18">
         <f t="shared" si="1"/>
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:12">
@@ -2846,7 +2824,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="7">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="15"/>
@@ -2857,7 +2835,7 @@
       </c>
       <c r="L46" s="18">
         <f t="shared" si="1"/>
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:12">
@@ -2872,7 +2850,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="7">
-        <v>-0.01</v>
+        <v>-0.004</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="15"/>
@@ -2883,7 +2861,7 @@
       </c>
       <c r="L47" s="18">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:12">
@@ -2898,7 +2876,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="7">
-        <v>0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="15"/>
@@ -2909,7 +2887,7 @@
       </c>
       <c r="L48" s="18">
         <f t="shared" si="1"/>
-        <v>-0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="49" ht="15.75" spans="1:12">
@@ -2924,7 +2902,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="13">
-        <v>-0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="24"/>
@@ -2935,7 +2913,7 @@
       </c>
       <c r="L49" s="27">
         <f t="shared" si="1"/>
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
   </sheetData>

--- a/data/裂缝宽度监测结果.xlsx
+++ b/data/裂缝宽度监测结果.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
   <si>
     <t>测点位置</t>
   </si>
@@ -1033,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,6 +1075,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1432,9 +1435,9 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G49"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1480,7 +1483,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1498,23 +1501,23 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17">
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18">
         <f>(C2-D2)-E2</f>
         <v>-0.019</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="19">
         <f>(F2-G2)-H2</f>
-        <v>0.003</v>
-      </c>
-      <c r="N2" s="19" t="s">
+        <v>-0.002</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="21">
         <f>MIN(C2:C4,C6:C7,C9)</f>
         <v>0</v>
       </c>
@@ -1531,23 +1534,23 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7">
-        <v>-0.014</v>
+        <v>-0.01</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17">
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18">
         <f t="shared" ref="K3:K49" si="0">(C3-D3)-E3</f>
         <v>-0.046</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="19">
         <f t="shared" ref="L3:L49" si="1">(F3-G3)-H3</f>
-        <v>0.014</v>
-      </c>
-      <c r="N3" s="19" t="s">
+        <v>0.01</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="21">
         <f>MAX(C2:C4,C6:C7,C9)</f>
         <v>0</v>
       </c>
@@ -1564,23 +1567,23 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7">
-        <v>-0.003</v>
+        <v>0.007</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17">
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18">
         <f t="shared" si="0"/>
         <v>-0.052</v>
       </c>
-      <c r="L4" s="18">
-        <f t="shared" si="1"/>
-        <v>0.003</v>
-      </c>
-      <c r="N4" s="19" t="s">
+      <c r="L4" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.007</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="21">
         <f>MIN(F2:F4,F6:F7,F9)</f>
         <v>0</v>
       </c>
@@ -1600,13 +1603,13 @@
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7">
-        <v>0.119</v>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -1615,13 +1618,13 @@
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="19" t="s">
+      <c r="L5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="21">
         <f>MAX(F2:F4,F6:F7,F9)</f>
         <v>0</v>
       </c>
@@ -1638,20 +1641,20 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
-        <v>0.004</v>
+        <v>0.011</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17">
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18">
         <f t="shared" si="0"/>
         <v>-0.083</v>
       </c>
-      <c r="L6" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.004</v>
-      </c>
-      <c r="O6" s="23"/>
+      <c r="L6" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.011</v>
+      </c>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" ht="15" spans="1:15">
       <c r="A7" s="4"/>
@@ -1665,20 +1668,20 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7">
-        <v>0.017</v>
+        <v>0.026</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17">
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18">
         <f t="shared" si="0"/>
         <v>-0.055</v>
       </c>
-      <c r="L7" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.017</v>
-      </c>
-      <c r="O7" s="23"/>
+      <c r="L7" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.026</v>
+      </c>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" ht="15" spans="1:15">
       <c r="A8" s="4"/>
@@ -1695,11 +1698,13 @@
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="7" t="s">
@@ -1708,10 +1713,10 @@
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="23"/>
+      <c r="L8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" ht="15" spans="1:15">
       <c r="A9" s="4"/>
@@ -1725,20 +1730,20 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7">
-        <v>-0.002</v>
+        <v>0.007</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17">
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18">
         <f t="shared" si="0"/>
         <v>-0.046</v>
       </c>
-      <c r="L9" s="18">
-        <f t="shared" si="1"/>
-        <v>0.002</v>
-      </c>
-      <c r="O9" s="23"/>
+      <c r="L9" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.007</v>
+      </c>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" ht="15" spans="1:15">
       <c r="A10" s="8" t="s">
@@ -1754,24 +1759,24 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7">
-        <v>-0.002</v>
+        <v>0.006</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17">
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18">
         <f t="shared" si="0"/>
         <v>-0.037</v>
       </c>
-      <c r="L10" s="18">
-        <f t="shared" si="1"/>
-        <v>0.002</v>
-      </c>
-      <c r="N10" s="19" t="s">
+      <c r="L10" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.006</v>
+      </c>
+      <c r="N10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="20">
-        <f>MIN(C10:C13,C15,C17,C19,C21:C22,C24:C25)</f>
+      <c r="O10" s="21">
+        <f>MIN(C10:C13,C15,C19,C21:C22,C24:C25)</f>
         <v>0</v>
       </c>
     </row>
@@ -1787,24 +1792,24 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7">
-        <v>0.014</v>
+        <v>0.023</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17">
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18">
         <f t="shared" si="0"/>
         <v>-0.033</v>
       </c>
-      <c r="L11" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.014</v>
-      </c>
-      <c r="N11" s="19" t="s">
+      <c r="L11" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.023</v>
+      </c>
+      <c r="N11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="20">
-        <f>MAX(C10:C13,C15,C17,C19,C21:C22,C24:C25)</f>
+      <c r="O11" s="21">
+        <f>MAX(C10:C13,C15,C19,C21:C22,C24:C25)</f>
         <v>0</v>
       </c>
     </row>
@@ -1820,24 +1825,24 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7">
-        <v>-0.029</v>
+        <v>-0.023</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17">
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18">
         <f t="shared" si="0"/>
         <v>-0.023</v>
       </c>
-      <c r="L12" s="18">
-        <f t="shared" si="1"/>
-        <v>0.029</v>
-      </c>
-      <c r="N12" s="19" t="s">
+      <c r="L12" s="19">
+        <f t="shared" si="1"/>
+        <v>0.023</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="20">
-        <f>MIN(F10:F13,F15,F17,F19,F21:F22,F24:F25)</f>
+      <c r="O12" s="21">
+        <f>MIN(F10:F13,F15,F19,F21:F22,F24:F25)</f>
         <v>0</v>
       </c>
     </row>
@@ -1853,24 +1858,24 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7">
-        <v>-0.021</v>
+        <v>-0.026</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17">
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18">
         <f t="shared" si="0"/>
         <v>-0.008</v>
       </c>
-      <c r="L13" s="18">
-        <f t="shared" si="1"/>
-        <v>0.021</v>
-      </c>
-      <c r="N13" s="19" t="s">
+      <c r="L13" s="19">
+        <f t="shared" si="1"/>
+        <v>0.026</v>
+      </c>
+      <c r="N13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="20">
-        <f>MAX(F10:F13,F15,F17,F19,F21:F22,F24:F25)</f>
+      <c r="O13" s="21">
+        <f>MAX(F10:F13,F15,F19,F21:F22,F24:F25)</f>
         <v>0</v>
       </c>
     </row>
@@ -1882,20 +1887,22 @@
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="7">
-        <v>0.646</v>
+      <c r="G14" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="7" t="s">
@@ -1904,10 +1911,10 @@
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="23"/>
+      <c r="L14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" ht="15" spans="1:15">
       <c r="A15" s="9"/>
@@ -1921,20 +1928,20 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17">
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18">
         <f t="shared" si="0"/>
         <v>-0.03</v>
       </c>
-      <c r="L15" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.008</v>
-      </c>
-      <c r="O15" s="23"/>
+      <c r="L15" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.015</v>
+      </c>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" ht="15" spans="1:15">
       <c r="A16" s="9"/>
@@ -1951,13 +1958,13 @@
       <c r="F16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="7">
-        <v>-0.01</v>
+      <c r="G16" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="7" t="s">
@@ -1966,10 +1973,10 @@
       <c r="K16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="23"/>
+      <c r="L16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" ht="15" spans="1:15">
       <c r="A17" s="9"/>
@@ -1978,25 +1985,25 @@
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7">
-        <v>0.071</v>
+        <v>0.076</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7">
-        <v>0.061</v>
+        <v>0.068</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17">
-        <f t="shared" si="0"/>
-        <v>-0.071</v>
-      </c>
-      <c r="L17" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.061</v>
-      </c>
-      <c r="O17" s="23"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.076</v>
+      </c>
+      <c r="L17" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.068</v>
+      </c>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" ht="15" spans="1:15">
       <c r="A18" s="9"/>
@@ -2006,20 +2013,22 @@
       <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="7">
-        <v>-0.061</v>
+      <c r="G18" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="7" t="s">
@@ -2028,10 +2037,10 @@
       <c r="K18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="23"/>
+      <c r="L18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" ht="15" spans="1:15">
       <c r="A19" s="9"/>
@@ -2040,25 +2049,25 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7">
-        <v>-0.006</v>
+        <v>0.005</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17">
-        <f t="shared" si="0"/>
-        <v>-0.031</v>
-      </c>
-      <c r="L19" s="18">
-        <f t="shared" si="1"/>
-        <v>0.006</v>
-      </c>
-      <c r="O19" s="23"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.033</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.005</v>
+      </c>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" ht="15" spans="1:15">
       <c r="A20" s="9"/>
@@ -2068,20 +2077,22 @@
       <c r="C20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="7">
-        <v>-0.012</v>
+      <c r="G20" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="7" t="s">
@@ -2090,10 +2101,10 @@
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="23"/>
+      <c r="L20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" ht="15" spans="1:15">
       <c r="A21" s="9"/>
@@ -2107,20 +2118,20 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7">
-        <v>-0.015</v>
+        <v>-0.008</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17">
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18">
         <f t="shared" si="0"/>
         <v>-0.014</v>
       </c>
-      <c r="L21" s="18">
-        <f t="shared" si="1"/>
-        <v>0.015</v>
-      </c>
-      <c r="O21" s="23"/>
+      <c r="L21" s="19">
+        <f t="shared" si="1"/>
+        <v>0.008</v>
+      </c>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" ht="15" spans="1:15">
       <c r="A22" s="9"/>
@@ -2134,20 +2145,20 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7">
-        <v>-0.014</v>
+        <v>-0.009</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17">
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18">
         <f t="shared" si="0"/>
         <v>-0.012</v>
       </c>
-      <c r="L22" s="18">
-        <f t="shared" si="1"/>
-        <v>0.014</v>
-      </c>
-      <c r="O22" s="23"/>
+      <c r="L22" s="19">
+        <f t="shared" si="1"/>
+        <v>0.009</v>
+      </c>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" ht="15" spans="1:15">
       <c r="A23" s="9"/>
@@ -2157,20 +2168,22 @@
       <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="7">
-        <v>0.018</v>
+      <c r="G23" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="7" t="s">
@@ -2179,10 +2192,10 @@
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="23"/>
+      <c r="L23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" ht="15" spans="1:15">
       <c r="A24" s="9"/>
@@ -2196,20 +2209,20 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7">
-        <v>-0.017</v>
+        <v>-0.012</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17">
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="18">
         <f t="shared" si="0"/>
         <v>-0.016</v>
       </c>
-      <c r="L24" s="18">
-        <f t="shared" si="1"/>
-        <v>0.017</v>
-      </c>
-      <c r="O24" s="23"/>
+      <c r="L24" s="19">
+        <f t="shared" si="1"/>
+        <v>0.012</v>
+      </c>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" ht="15" spans="1:15">
       <c r="A25" s="9"/>
@@ -2223,20 +2236,20 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7">
-        <v>-0.01</v>
+        <v>-0.007</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="17">
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="18">
         <f t="shared" si="0"/>
         <v>-0.02</v>
       </c>
-      <c r="L25" s="18">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="O25" s="23"/>
+      <c r="L25" s="19">
+        <f t="shared" si="1"/>
+        <v>0.007</v>
+      </c>
+      <c r="O25" s="24"/>
     </row>
     <row r="26" ht="15" spans="1:15">
       <c r="A26" s="8" t="s">
@@ -2252,24 +2265,24 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17">
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18">
         <f t="shared" si="0"/>
         <v>-0.025</v>
       </c>
-      <c r="L26" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.003</v>
-      </c>
-      <c r="N26" s="19" t="s">
+      <c r="L26" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.006</v>
+      </c>
+      <c r="N26" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="20">
-        <f>MIN(C26:C31,C33:C36,C38:C39,C41:C49)</f>
+      <c r="O26" s="21">
+        <f>MIN(C26:C31,C33:C36,C38:C39,C41:C42,C44:C49)</f>
         <v>0</v>
       </c>
     </row>
@@ -2285,24 +2298,24 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17">
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18">
         <f t="shared" si="0"/>
         <v>-0.011</v>
       </c>
-      <c r="L27" s="18">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="N27" s="19" t="s">
+      <c r="L27" s="19">
+        <f t="shared" si="1"/>
+        <v>0.015</v>
+      </c>
+      <c r="N27" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="20">
-        <f>MAX(C26:C31,C33:C36,C38:C39,C41:C49)</f>
+      <c r="O27" s="21">
+        <f>MAX(C26:C31,C33:C36,C38:C39,C41:C42,C44:C49)</f>
         <v>0</v>
       </c>
     </row>
@@ -2318,24 +2331,24 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7">
-        <v>-0.04</v>
+        <v>-0.032</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17">
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="18">
         <f t="shared" si="0"/>
         <v>-0.018</v>
       </c>
-      <c r="L28" s="18">
-        <f t="shared" si="1"/>
-        <v>0.04</v>
-      </c>
-      <c r="N28" s="19" t="s">
+      <c r="L28" s="19">
+        <f t="shared" si="1"/>
+        <v>0.032</v>
+      </c>
+      <c r="N28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O28" s="20">
-        <f>MIN(F26:F31,F33:F36,F38:F39,F41:F49)</f>
+      <c r="O28" s="21">
+        <f>MIN(F26:F31,F33:F36,F38:F39,F41:F42,F44:F49)</f>
         <v>0</v>
       </c>
     </row>
@@ -2351,24 +2364,24 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7">
-        <v>-0.023</v>
+        <v>-0.025</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17">
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="18">
         <f t="shared" si="0"/>
         <v>-0.016</v>
       </c>
-      <c r="L29" s="18">
-        <f t="shared" si="1"/>
-        <v>0.023</v>
-      </c>
-      <c r="N29" s="19" t="s">
+      <c r="L29" s="19">
+        <f t="shared" si="1"/>
+        <v>0.025</v>
+      </c>
+      <c r="N29" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="20">
-        <f>MAX(F26:F31,F33:F36,F38:F39,F41:F49)</f>
+      <c r="O29" s="21">
+        <f>MAX(F26:F31,F33:F36,F38:F39,F41:F42,F44:F49)</f>
         <v>0</v>
       </c>
     </row>
@@ -2384,18 +2397,18 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17">
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="18">
         <f t="shared" si="0"/>
         <v>-0.017</v>
       </c>
-      <c r="L30" s="18">
-        <f t="shared" si="1"/>
-        <v>0.006</v>
+      <c r="L30" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:12">
@@ -2410,18 +2423,18 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17">
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18">
         <f t="shared" si="0"/>
         <v>-0.042</v>
       </c>
-      <c r="L31" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.02</v>
+      <c r="L31" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2432,20 +2445,22 @@
       <c r="C32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="7">
-        <v>-0.008</v>
+      <c r="G32" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J32" s="7" t="s">
@@ -2454,7 +2469,7 @@
       <c r="K32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="23" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2470,18 +2485,18 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
-        <v>0.009</v>
+        <v>0.012</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17">
+      <c r="I33" s="16"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="18">
         <f t="shared" si="0"/>
         <v>-0.035</v>
       </c>
-      <c r="L33" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.009</v>
+      <c r="L33" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:12">
@@ -2496,18 +2511,18 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17">
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="18">
         <f t="shared" si="0"/>
         <v>-0.046</v>
       </c>
-      <c r="L34" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.017</v>
+      <c r="L34" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:12">
@@ -2522,18 +2537,18 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="H35" s="6"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17">
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18">
         <f t="shared" si="0"/>
         <v>-0.032</v>
       </c>
-      <c r="L35" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.015</v>
+      <c r="L35" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:12">
@@ -2548,18 +2563,18 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17">
+      <c r="I36" s="16"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18">
         <f t="shared" si="0"/>
         <v>-0.038</v>
       </c>
-      <c r="L36" s="18">
-        <f t="shared" si="1"/>
-        <v>0.001</v>
+      <c r="L36" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2570,20 +2585,22 @@
       <c r="C37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="7">
-        <v>0.181</v>
+      <c r="G37" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="7" t="s">
@@ -2592,7 +2609,7 @@
       <c r="K37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="L37" s="23" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2608,18 +2625,18 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17">
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="18">
         <f t="shared" si="0"/>
         <v>-0.031</v>
       </c>
-      <c r="L38" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.004</v>
+      <c r="L38" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:12">
@@ -2634,18 +2651,18 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7">
-        <v>-0.022</v>
+        <v>-0.017</v>
       </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17">
+      <c r="I39" s="16"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18">
         <f t="shared" si="0"/>
         <v>-0.007</v>
       </c>
-      <c r="L39" s="18">
-        <f t="shared" si="1"/>
-        <v>0.022</v>
+      <c r="L39" s="19">
+        <f t="shared" si="1"/>
+        <v>0.017</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2656,20 +2673,22 @@
       <c r="C40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E40" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="7">
-        <v>-0.343</v>
+      <c r="G40" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="7" t="s">
@@ -2678,7 +2697,7 @@
       <c r="K40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="23" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2694,18 +2713,18 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7">
-        <v>-0.015</v>
+        <v>-0.013</v>
       </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="17">
+      <c r="I41" s="16"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18">
         <f t="shared" si="0"/>
         <v>-0.016</v>
       </c>
-      <c r="L41" s="18">
-        <f t="shared" si="1"/>
-        <v>0.015</v>
+      <c r="L41" s="19">
+        <f t="shared" si="1"/>
+        <v>0.013</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:12">
@@ -2720,18 +2739,18 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17">
+      <c r="I42" s="16"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18">
         <f t="shared" si="0"/>
         <v>-0.028</v>
       </c>
-      <c r="L42" s="18">
-        <f t="shared" si="1"/>
-        <v>0.001</v>
+      <c r="L42" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:12">
@@ -2741,23 +2760,23 @@
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="7">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7">
-        <v>0.015</v>
+        <v>0.036</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17">
-        <f t="shared" si="0"/>
-        <v>-0.026</v>
-      </c>
-      <c r="L43" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.015</v>
+      <c r="I43" s="16"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.03</v>
+      </c>
+      <c r="L43" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:12">
@@ -2772,18 +2791,18 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17">
+      <c r="I44" s="16"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="18">
         <f t="shared" si="0"/>
         <v>-0.04</v>
       </c>
-      <c r="L44" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.01</v>
+      <c r="L44" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:12">
@@ -2798,18 +2817,18 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="7">
-        <v>-0.032</v>
+        <v>-0.037</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17">
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="18">
         <f t="shared" si="0"/>
         <v>-0.006</v>
       </c>
-      <c r="L45" s="18">
-        <f t="shared" si="1"/>
-        <v>0.032</v>
+      <c r="L45" s="19">
+        <f t="shared" si="1"/>
+        <v>0.037</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:12">
@@ -2824,18 +2843,18 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="7">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="H46" s="6"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17">
+      <c r="I46" s="16"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18">
         <f t="shared" si="0"/>
         <v>-0.019</v>
       </c>
-      <c r="L46" s="18">
-        <f t="shared" si="1"/>
-        <v>0.005</v>
+      <c r="L46" s="19">
+        <f t="shared" si="1"/>
+        <v>0.006</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:12">
@@ -2850,18 +2869,18 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="7">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="17">
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="18">
         <f t="shared" si="0"/>
         <v>-0.011</v>
       </c>
-      <c r="L47" s="18">
-        <f t="shared" si="1"/>
-        <v>0.004</v>
+      <c r="L47" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:12">
@@ -2876,18 +2895,18 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="7">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H48" s="6"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17">
+      <c r="I48" s="16"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="18">
         <f t="shared" si="0"/>
         <v>-0.034</v>
       </c>
-      <c r="L48" s="18">
-        <f t="shared" si="1"/>
-        <v>0.001</v>
+      <c r="L48" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="49" ht="15.75" spans="1:12">
@@ -2901,19 +2920,19 @@
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="13">
-        <v>-0.005</v>
+      <c r="G49" s="14">
+        <v>0.003</v>
       </c>
       <c r="H49" s="12"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="26">
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="27">
         <f t="shared" si="0"/>
         <v>-0.04</v>
       </c>
-      <c r="L49" s="27">
-        <f t="shared" si="1"/>
-        <v>0.005</v>
+      <c r="L49" s="28">
+        <f t="shared" si="1"/>
+        <v>-0.003</v>
       </c>
     </row>
   </sheetData>
